--- a/application/static/api/table-kedisiplinan.xlsx
+++ b/application/static/api/table-kedisiplinan.xlsx
@@ -22,49 +22,49 @@
     <t>jumlah telat</t>
   </si>
   <si>
-    <t>apr 15</t>
-  </si>
-  <si>
-    <t>apr 16</t>
-  </si>
-  <si>
-    <t>apr 17</t>
-  </si>
-  <si>
-    <t>apr 18</t>
-  </si>
-  <si>
-    <t>apr 19</t>
-  </si>
-  <si>
-    <t>apr 20</t>
-  </si>
-  <si>
-    <t>apr 21</t>
-  </si>
-  <si>
-    <t>apr 22</t>
-  </si>
-  <si>
-    <t>apr 23</t>
-  </si>
-  <si>
-    <t>apr 24</t>
-  </si>
-  <si>
-    <t>apr 25</t>
-  </si>
-  <si>
-    <t>apr 26</t>
-  </si>
-  <si>
-    <t>apr 27</t>
-  </si>
-  <si>
-    <t>apr 28</t>
-  </si>
-  <si>
-    <t>apr 29</t>
+    <t>jun 15</t>
+  </si>
+  <si>
+    <t>jun 16</t>
+  </si>
+  <si>
+    <t>jun 17</t>
+  </si>
+  <si>
+    <t>jun 18</t>
+  </si>
+  <si>
+    <t>jun 19</t>
+  </si>
+  <si>
+    <t>jun 20</t>
+  </si>
+  <si>
+    <t>jun 21</t>
+  </si>
+  <si>
+    <t>jun 22</t>
+  </si>
+  <si>
+    <t>jun 23</t>
+  </si>
+  <si>
+    <t>jun 24</t>
+  </si>
+  <si>
+    <t>jun 25</t>
+  </si>
+  <si>
+    <t>jun 26</t>
+  </si>
+  <si>
+    <t>jun 27</t>
+  </si>
+  <si>
+    <t>jun 28</t>
+  </si>
+  <si>
+    <t>jun 29</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">

--- a/application/static/api/table-kedisiplinan.xlsx
+++ b/application/static/api/table-kedisiplinan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>bulan</t>
   </si>
@@ -22,49 +22,46 @@
     <t>jumlah telat</t>
   </si>
   <si>
-    <t>jun 15</t>
-  </si>
-  <si>
-    <t>jun 16</t>
-  </si>
-  <si>
-    <t>jun 17</t>
-  </si>
-  <si>
-    <t>jun 18</t>
-  </si>
-  <si>
-    <t>jun 19</t>
-  </si>
-  <si>
-    <t>jun 20</t>
-  </si>
-  <si>
-    <t>jun 21</t>
-  </si>
-  <si>
-    <t>jun 22</t>
-  </si>
-  <si>
-    <t>jun 23</t>
-  </si>
-  <si>
-    <t>jun 24</t>
-  </si>
-  <si>
-    <t>jun 25</t>
-  </si>
-  <si>
-    <t>jun 26</t>
-  </si>
-  <si>
-    <t>jun 27</t>
-  </si>
-  <si>
-    <t>jun 28</t>
-  </si>
-  <si>
-    <t>jun 29</t>
+    <t>jul 1</t>
+  </si>
+  <si>
+    <t>jul 2</t>
+  </si>
+  <si>
+    <t>jul 3</t>
+  </si>
+  <si>
+    <t>jul 4</t>
+  </si>
+  <si>
+    <t>jul 5</t>
+  </si>
+  <si>
+    <t>jul 6</t>
+  </si>
+  <si>
+    <t>jul 7</t>
+  </si>
+  <si>
+    <t>jul 8</t>
+  </si>
+  <si>
+    <t>jul 9</t>
+  </si>
+  <si>
+    <t>jul 10</t>
+  </si>
+  <si>
+    <t>jul 11</t>
+  </si>
+  <si>
+    <t>jul 12</t>
+  </si>
+  <si>
+    <t>jul 13</t>
+  </si>
+  <si>
+    <t>jul 14</t>
   </si>
 </sst>
 </file>
@@ -396,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,14 +519,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/application/static/api/table-kedisiplinan.xlsx
+++ b/application/static/api/table-kedisiplinan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>bulan</t>
   </si>
@@ -22,46 +22,52 @@
     <t>jumlah telat</t>
   </si>
   <si>
-    <t>jul 1</t>
-  </si>
-  <si>
-    <t>jul 2</t>
-  </si>
-  <si>
-    <t>jul 3</t>
-  </si>
-  <si>
-    <t>jul 4</t>
-  </si>
-  <si>
-    <t>jul 5</t>
-  </si>
-  <si>
-    <t>jul 6</t>
-  </si>
-  <si>
-    <t>jul 7</t>
-  </si>
-  <si>
-    <t>jul 8</t>
-  </si>
-  <si>
-    <t>jul 9</t>
-  </si>
-  <si>
-    <t>jul 10</t>
-  </si>
-  <si>
-    <t>jul 11</t>
-  </si>
-  <si>
-    <t>jul 12</t>
-  </si>
-  <si>
-    <t>jul 13</t>
-  </si>
-  <si>
-    <t>jul 14</t>
+    <t>jul 15</t>
+  </si>
+  <si>
+    <t>jul 16</t>
+  </si>
+  <si>
+    <t>jul 17</t>
+  </si>
+  <si>
+    <t>jul 18</t>
+  </si>
+  <si>
+    <t>jul 19</t>
+  </si>
+  <si>
+    <t>jul 20</t>
+  </si>
+  <si>
+    <t>jul 21</t>
+  </si>
+  <si>
+    <t>jul 22</t>
+  </si>
+  <si>
+    <t>jul 23</t>
+  </si>
+  <si>
+    <t>jul 24</t>
+  </si>
+  <si>
+    <t>jul 25</t>
+  </si>
+  <si>
+    <t>jul 26</t>
+  </si>
+  <si>
+    <t>jul 27</t>
+  </si>
+  <si>
+    <t>jul 28</t>
+  </si>
+  <si>
+    <t>jul 29</t>
+  </si>
+  <si>
+    <t>jul 30</t>
   </si>
 </sst>
 </file>
@@ -393,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,6 +525,22 @@
         <v>0</v>
       </c>
     </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/application/static/api/table-kedisiplinan.xlsx
+++ b/application/static/api/table-kedisiplinan.xlsx
@@ -22,52 +22,52 @@
     <t>jumlah telat</t>
   </si>
   <si>
-    <t>jul 15</t>
-  </si>
-  <si>
-    <t>jul 16</t>
-  </si>
-  <si>
-    <t>jul 17</t>
-  </si>
-  <si>
-    <t>jul 18</t>
-  </si>
-  <si>
-    <t>jul 19</t>
-  </si>
-  <si>
-    <t>jul 20</t>
-  </si>
-  <si>
-    <t>jul 21</t>
-  </si>
-  <si>
-    <t>jul 22</t>
-  </si>
-  <si>
-    <t>jul 23</t>
-  </si>
-  <si>
-    <t>jul 24</t>
-  </si>
-  <si>
-    <t>jul 25</t>
-  </si>
-  <si>
-    <t>jul 26</t>
-  </si>
-  <si>
-    <t>jul 27</t>
-  </si>
-  <si>
-    <t>jul 28</t>
-  </si>
-  <si>
-    <t>jul 29</t>
-  </si>
-  <si>
-    <t>jul 30</t>
+    <t>agu 15</t>
+  </si>
+  <si>
+    <t>agu 16</t>
+  </si>
+  <si>
+    <t>agu 17</t>
+  </si>
+  <si>
+    <t>agu 18</t>
+  </si>
+  <si>
+    <t>agu 19</t>
+  </si>
+  <si>
+    <t>agu 20</t>
+  </si>
+  <si>
+    <t>agu 21</t>
+  </si>
+  <si>
+    <t>agu 22</t>
+  </si>
+  <si>
+    <t>agu 23</t>
+  </si>
+  <si>
+    <t>agu 24</t>
+  </si>
+  <si>
+    <t>agu 25</t>
+  </si>
+  <si>
+    <t>agu 26</t>
+  </si>
+  <si>
+    <t>agu 27</t>
+  </si>
+  <si>
+    <t>agu 28</t>
+  </si>
+  <si>
+    <t>agu 29</t>
+  </si>
+  <si>
+    <t>agu 30</t>
   </si>
 </sst>
 </file>

--- a/application/static/api/table-kedisiplinan.xlsx
+++ b/application/static/api/table-kedisiplinan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>bulan</t>
   </si>
@@ -22,52 +22,49 @@
     <t>jumlah telat</t>
   </si>
   <si>
-    <t>agu 15</t>
-  </si>
-  <si>
-    <t>agu 16</t>
-  </si>
-  <si>
-    <t>agu 17</t>
-  </si>
-  <si>
-    <t>agu 18</t>
-  </si>
-  <si>
-    <t>agu 19</t>
-  </si>
-  <si>
-    <t>agu 20</t>
-  </si>
-  <si>
-    <t>agu 21</t>
-  </si>
-  <si>
-    <t>agu 22</t>
-  </si>
-  <si>
-    <t>agu 23</t>
-  </si>
-  <si>
-    <t>agu 24</t>
-  </si>
-  <si>
-    <t>agu 25</t>
-  </si>
-  <si>
-    <t>agu 26</t>
-  </si>
-  <si>
-    <t>agu 27</t>
-  </si>
-  <si>
-    <t>agu 28</t>
-  </si>
-  <si>
-    <t>agu 29</t>
-  </si>
-  <si>
-    <t>agu 30</t>
+    <t>feb 14</t>
+  </si>
+  <si>
+    <t>feb 15</t>
+  </si>
+  <si>
+    <t>feb 16</t>
+  </si>
+  <si>
+    <t>feb 17</t>
+  </si>
+  <si>
+    <t>feb 18</t>
+  </si>
+  <si>
+    <t>feb 19</t>
+  </si>
+  <si>
+    <t>feb 20</t>
+  </si>
+  <si>
+    <t>feb 21</t>
+  </si>
+  <si>
+    <t>feb 22</t>
+  </si>
+  <si>
+    <t>feb 23</t>
+  </si>
+  <si>
+    <t>feb 24</t>
+  </si>
+  <si>
+    <t>feb 25</t>
+  </si>
+  <si>
+    <t>feb 26</t>
+  </si>
+  <si>
+    <t>feb 27</t>
+  </si>
+  <si>
+    <t>feb 28</t>
   </si>
 </sst>
 </file>
@@ -399,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -533,14 +530,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
